--- a/hardware/boards/axis_portal_v1/docs/Documentation.xlsx
+++ b/hardware/boards/axis_portal_v1/docs/Documentation.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\Academico\TU_Ilmenau\Projectos\HIWI\GOLDI_Module\SOFTWARE\CORE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\josep\goldi2\hardware\boards\axis_portal_v1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4D0BE54-BD67-4317-AE7A-D5B1AE18BAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8C61D0-87C8-4DFF-AA49-8769F2B3D4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="axis_portal_v1(Pinout)" sheetId="1" r:id="rId1"/>
-    <sheet name="axis_porta_v1(Registers)" sheetId="2" r:id="rId2"/>
-    <sheet name="axis_portal_v1(Error List)" sheetId="3" r:id="rId3"/>
-    <sheet name="axis_portal_v1(Comms Protocol)" sheetId="4" r:id="rId4"/>
+    <sheet name="Pinout" sheetId="1" r:id="rId1"/>
+    <sheet name="Registers" sheetId="2" r:id="rId2"/>
+    <sheet name="Error List" sheetId="3" r:id="rId3"/>
+    <sheet name="Comms Protocol" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="267">
   <si>
     <t>Signal Name</t>
   </si>
@@ -74,6 +74,9 @@
     <t>SPI0_nCE0</t>
   </si>
   <si>
+    <t>SPI0_nCE1</t>
+  </si>
+  <si>
     <t>SPI0_MISO</t>
   </si>
   <si>
@@ -212,6 +215,129 @@
     <t>LVCMOS33</t>
   </si>
   <si>
+    <t>IN_OUT_DATA[0]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[1]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[3]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[2]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[4]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[5]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[6]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[7]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[8]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[9]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[10]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[11]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[12]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[13]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[14]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[15]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[16]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[17]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[18]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[19]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[20]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[21]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[22]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[23]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[24]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[25]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[26]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[27]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[28]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[29]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[30]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[31]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[32]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[33]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[34]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[35]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[36]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[37]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[38]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[39]</t>
+  </si>
+  <si>
+    <t>IN_OUT_DATA[40]</t>
+  </si>
+  <si>
     <t>External IO Index</t>
   </si>
   <si>
@@ -380,12 +506,6 @@
     <t>0x07</t>
   </si>
   <si>
-    <t>data_in</t>
-  </si>
-  <si>
-    <t>data_out</t>
-  </si>
-  <si>
     <t>out_enb</t>
   </si>
   <si>
@@ -572,12 +692,6 @@
     <t>Z_bottom and Z_top simultaneously on</t>
   </si>
   <si>
-    <t>X motor actuated while graber not in top possition</t>
-  </si>
-  <si>
-    <t>Y motor actuated while graber not in top possition</t>
-  </si>
-  <si>
     <t>Portal at outermost position and X_left</t>
   </si>
   <si>
@@ -665,127 +779,67 @@
     <t>Register 1 [SYSTEM_CONFIGURATION] is addressable from both buses; this explains the codification of the External IO Address as "Index + 2". Register follows the "System Communication Mode Protocol" independent of content.</t>
   </si>
   <si>
-    <t>IO_DATA[0]</t>
-  </si>
-  <si>
-    <t>IO_DATA[1]</t>
-  </si>
-  <si>
-    <t>IO_DATA[2]</t>
-  </si>
-  <si>
-    <t>IO_DATA[3]</t>
-  </si>
-  <si>
-    <t>IO_DATA[4]</t>
-  </si>
-  <si>
-    <t>IO_DATA[5]</t>
-  </si>
-  <si>
-    <t>IO_DATA[6]</t>
-  </si>
-  <si>
-    <t>IO_DATA[7]</t>
-  </si>
-  <si>
-    <t>IO_DATA[8]</t>
-  </si>
-  <si>
-    <t>IO_DATA[9]</t>
-  </si>
-  <si>
-    <t>IO_DATA[10]</t>
-  </si>
-  <si>
-    <t>IO_DATA[11]</t>
-  </si>
-  <si>
-    <t>IO_DATA[12]</t>
-  </si>
-  <si>
-    <t>IO_DATA[13]</t>
-  </si>
-  <si>
-    <t>IO_DATA[14]</t>
-  </si>
-  <si>
-    <t>IO_DATA[15]</t>
-  </si>
-  <si>
-    <t>IO_DATA[16]</t>
-  </si>
-  <si>
-    <t>IO_DATA[17]</t>
-  </si>
-  <si>
-    <t>IO_DATA[18]</t>
-  </si>
-  <si>
-    <t>IO_DATA[19]</t>
-  </si>
-  <si>
-    <t>IO_DATA[20]</t>
-  </si>
-  <si>
-    <t>IO_DATA[21]</t>
-  </si>
-  <si>
-    <t>IO_DATA[22]</t>
-  </si>
-  <si>
-    <t>IO_DATA[23]</t>
-  </si>
-  <si>
-    <t>IO_DATA[24]</t>
-  </si>
-  <si>
-    <t>IO_DATA[25]</t>
-  </si>
-  <si>
-    <t>IO_DATA[26]</t>
-  </si>
-  <si>
-    <t>IO_DATA[27]</t>
-  </si>
-  <si>
-    <t>IO_DATA[28]</t>
-  </si>
-  <si>
-    <t>IO_DATA[29]</t>
-  </si>
-  <si>
-    <t>IO_DATA[30]</t>
-  </si>
-  <si>
-    <t>IO_DATA[31]</t>
-  </si>
-  <si>
-    <t>IO_DATA[32]</t>
-  </si>
-  <si>
-    <t>IO_DATA[33]</t>
-  </si>
-  <si>
-    <t>IO_DATA[34]</t>
-  </si>
-  <si>
-    <t>IO_DATA[35]</t>
-  </si>
-  <si>
-    <t>IO_DATA[36]</t>
-  </si>
-  <si>
-    <t>IO_DATA[37]</t>
-  </si>
-  <si>
-    <t>IO_DATA[38]</t>
-  </si>
-  <si>
-    <t>IO_DATA[39]</t>
-  </si>
-  <si>
-    <t>IO_DATA[40]</t>
+    <t>ENC_rst</t>
+  </si>
+  <si>
+    <t>error_18</t>
+  </si>
+  <si>
+    <t>error_19</t>
+  </si>
+  <si>
+    <t>error_20</t>
+  </si>
+  <si>
+    <t>error_21</t>
+  </si>
+  <si>
+    <t>error_22</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>X motor actuated left while crane not in top position</t>
+  </si>
+  <si>
+    <t>X motor actuated right while crane not in top position</t>
+  </si>
+  <si>
+    <t>Y motor actuated back while crane not in top position</t>
+  </si>
+  <si>
+    <t>Y motor actuated front while crane not in top position</t>
+  </si>
+  <si>
+    <t>X DC motor out channels inverted</t>
+  </si>
+  <si>
+    <t>Y DC motor out channels inverted</t>
+  </si>
+  <si>
+    <t>Z DC motor out channels inverted</t>
+  </si>
+  <si>
+    <t>CPOL</t>
+  </si>
+  <si>
+    <t>Initial clock state during idle cycle</t>
+  </si>
+  <si>
+    <t>CPHA</t>
+  </si>
+  <si>
+    <t>Clock transition vs data transitoin</t>
+  </si>
+  <si>
+    <t>Data shifted out on the falling edge and registered on the rising edge</t>
+  </si>
+  <si>
+    <t>logic high</t>
+  </si>
+  <si>
+    <t>SPI Protocol:</t>
   </si>
 </sst>
 </file>
@@ -894,7 +948,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1061,19 +1115,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1241,15 +1282,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1556,25 +1588,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1599,235 +1644,281 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2112,10 +2203,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H61"/>
+  <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2135,33 +2226,33 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -2169,13 +2260,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5">
         <v>128</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>6</v>
@@ -2188,13 +2279,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -2207,13 +2298,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>133</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
@@ -2226,13 +2317,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>138</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -2245,13 +2336,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>127</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -2267,10 +2358,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -2280,71 +2371,67 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="2">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -2352,22 +2439,22 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -2375,22 +2462,22 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -2398,22 +2485,22 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -2421,22 +2508,22 @@
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -2444,22 +2531,22 @@
         <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="G18" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -2467,22 +2554,22 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -2490,22 +2577,22 @@
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -2513,22 +2600,22 @@
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -2536,22 +2623,22 @@
         <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -2559,22 +2646,22 @@
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="G23" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -2582,22 +2669,22 @@
         <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -2605,22 +2692,22 @@
         <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="G25" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -2628,22 +2715,22 @@
         <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="G26" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -2651,22 +2738,22 @@
         <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2">
+        <v>97</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="2">
         <v>15</v>
       </c>
-      <c r="D27" s="2">
-        <v>98</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" s="2">
-        <v>16</v>
-      </c>
       <c r="H27" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -2674,22 +2761,22 @@
         <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="G28" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -2697,22 +2784,22 @@
         <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="G29" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -2720,22 +2807,22 @@
         <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="G30" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -2743,22 +2830,22 @@
         <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="G31" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -2766,22 +2853,22 @@
         <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="G32" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -2789,22 +2876,22 @@
         <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="G33" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H33" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -2812,22 +2899,22 @@
         <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="G34" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
@@ -2835,22 +2922,22 @@
         <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="G35" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -2858,22 +2945,22 @@
         <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="G36" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -2881,22 +2968,22 @@
         <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="G37" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
@@ -2904,22 +2991,22 @@
         <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="G38" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H38" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
@@ -2927,22 +3014,22 @@
         <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="G39" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H39" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -2950,22 +3037,22 @@
         <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="G40" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H40" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -2973,22 +3060,22 @@
         <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="G41" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -2996,22 +3083,22 @@
         <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="G42" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H42" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
@@ -3019,22 +3106,22 @@
         <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="G43" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
@@ -3042,22 +3129,22 @@
         <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="G44" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44" s="8">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
@@ -3065,19 +3152,19 @@
         <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="G45" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45" s="8">
         <v>41</v>
@@ -3088,19 +3175,19 @@
         <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>243</v>
+        <v>92</v>
       </c>
       <c r="G46" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H46" s="8">
         <v>41</v>
@@ -3111,19 +3198,19 @@
         <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>244</v>
+        <v>93</v>
       </c>
       <c r="G47" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47" s="8">
         <v>41</v>
@@ -3134,19 +3221,19 @@
         <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="G48" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48" s="8">
         <v>41</v>
@@ -3157,19 +3244,19 @@
         <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="G49" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49" s="8">
         <v>41</v>
@@ -3180,148 +3267,171 @@
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="G50" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H50" s="8">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="9" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="10">
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2">
+        <v>81</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="2">
+        <v>39</v>
+      </c>
+      <c r="H51" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="10">
         <v>82</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G51" s="10">
+      <c r="E52" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="10">
         <v>40</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H52" s="11">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="61"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="62">
+    <row r="54" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="58"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="59">
         <v>1</v>
       </c>
-      <c r="C55" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="56"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="62"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="56"/>
+      <c r="C56" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="63"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="58"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="44">
+      <c r="B58" s="60"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="55"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="41">
         <v>2</v>
       </c>
-      <c r="C58" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="52"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="64">
+      <c r="C59" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="49"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="61">
         <v>3</v>
       </c>
-      <c r="C59" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="54"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="62"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="56"/>
+      <c r="C60" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="51"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="63"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="58"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="53"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="60"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C55:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C56:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H62"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3330,10 +3440,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M38"/>
+  <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3349,26 +3459,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
+      <c r="B2" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="77"/>
+      <c r="B3" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="75"/>
       <c r="D3" s="12">
         <v>1</v>
       </c>
@@ -3383,12 +3493,12 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="77"/>
+      <c r="B4" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="75"/>
       <c r="D4" s="13" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -3401,12 +3511,12 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="77"/>
+      <c r="B5" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="75"/>
       <c r="D5" s="14" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -3419,10 +3529,959 @@
       <c r="M5" s="12"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="20">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="20">
+        <v>3</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="20">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="20">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="20">
+        <v>6</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="20">
+        <v>7</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="20">
+        <v>8</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="20">
+        <v>9</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="20">
+        <v>10</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="20">
+        <v>11</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="20">
+        <v>12</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="20">
+        <v>13</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="20">
+        <v>14</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="20">
+        <v>15</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="20">
+        <v>16</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="20">
+        <v>17</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="20">
+        <v>18</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="E28" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="73"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="20">
+        <v>19</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="20">
+        <v>20</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" s="104"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="20">
+        <v>21</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="20">
+        <v>22</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" s="68"/>
+      <c r="M32" s="69"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="20">
+        <v>23</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" s="68"/>
+      <c r="M33" s="69"/>
+    </row>
+    <row r="34" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="108">
+        <v>24</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" s="70"/>
+      <c r="M34" s="71"/>
+    </row>
+    <row r="35" spans="2:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="17"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:M8"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6206EADB-4EE7-44CE-ABF9-B95869B60E24}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>211</v>
+      </c>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
@@ -3434,9 +4493,13 @@
       <c r="L7" s="78"/>
       <c r="M7" s="78"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>212</v>
+      </c>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
@@ -3448,1164 +4511,319 @@
       <c r="L8" s="78"/>
       <c r="M8" s="78"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="20">
-        <v>2</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="20">
-        <v>3</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="20">
-        <v>4</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="20">
-        <v>5</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="20">
-        <v>6</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="20">
-        <v>7</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="20">
-        <v>8</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="20">
-        <v>9</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="74" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="20">
-        <v>10</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="20">
-        <v>11</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="75"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="20">
-        <v>12</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="75"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="20">
-        <v>13</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="20">
-        <v>14</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="75"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="20">
-        <v>15</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="M25" s="40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="20">
-        <v>16</v>
-      </c>
-      <c r="D26" s="19" t="s">
+      <c r="C17" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="20">
-        <v>17</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="M27" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="20">
-        <v>18</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="75"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="20">
-        <v>19</v>
-      </c>
-      <c r="D29" s="19" t="s">
+      <c r="C18" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
+      <c r="C19" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="20">
-        <v>20</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="I30" s="106"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="20">
-        <v>21</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="I31" s="106"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="20">
-        <v>22</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H32" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="106"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="20">
-        <v>23</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="I33" s="106"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-    </row>
-    <row r="34" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="29">
-        <v>24</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="H34" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="L34" s="72"/>
-      <c r="M34" s="73"/>
-    </row>
-    <row r="35" spans="2:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="17"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
+      <c r="C20" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="111" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="111" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:M8"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6206EADB-4EE7-44CE-ABF9-B95869B60E24}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:M20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
     <mergeCell ref="C13:M13"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="C3:M3"/>
@@ -4618,17 +4836,17 @@
     <mergeCell ref="C10:M10"/>
     <mergeCell ref="C11:M11"/>
     <mergeCell ref="C12:M12"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="C22:M22"/>
     <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C16:M16"/>
     <mergeCell ref="C17:M17"/>
     <mergeCell ref="C18:M18"/>
     <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C21:M21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4637,10 +4855,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Q24"/>
+  <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:Q24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4650,426 +4868,484 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
+      <c r="B2" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
+      <c r="B4" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="94"/>
+      <c r="B6" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="92"/>
     </row>
     <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="50" t="s">
-        <v>78</v>
+      <c r="B7" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="97"/>
+      <c r="B8" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="46">
+      <c r="B9" s="43">
         <v>0</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="103"/>
+      <c r="C9" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101"/>
     </row>
     <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="45">
+      <c r="B10" s="42">
         <v>1</v>
       </c>
-      <c r="C10" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="86"/>
+      <c r="C10" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="84"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
+      <c r="B13" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
     </row>
     <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
+      <c r="B15" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="92"/>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="50" t="s">
-        <v>78</v>
+      <c r="B16" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" s="47" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="97"/>
+      <c r="B17" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="95"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="46">
+      <c r="B18" s="43">
         <v>0</v>
       </c>
-      <c r="C18" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="103"/>
+      <c r="C18" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="101"/>
     </row>
     <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="45">
+      <c r="B19" s="42">
         <v>1</v>
       </c>
-      <c r="C19" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="86"/>
+      <c r="C19" s="81" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="84"/>
     </row>
     <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="90"/>
+      <c r="B22" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="62">
+      <c r="B23" s="59">
         <v>1</v>
       </c>
-      <c r="C23" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
+      <c r="C23" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="53"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="63"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="58"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+    </row>
+    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="124">
+        <v>1</v>
+      </c>
+      <c r="I29" s="113" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="114"/>
+    </row>
+    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="119" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="125">
+        <v>1</v>
+      </c>
+      <c r="I30" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="29">
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I29:N29"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="J6:Q6"/>
     <mergeCell ref="J8:Q8"/>
@@ -5092,6 +5368,6 @@
     <mergeCell ref="J18:Q18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hardware/boards/axis_portal_v1/docs/Documentation.xlsx
+++ b/hardware/boards/axis_portal_v1/docs/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\josep\goldi2\hardware\boards\axis_portal_v1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8C61D0-87C8-4DFF-AA49-8769F2B3D4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F056F9-2D01-44ED-95D5-C80F4539842D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="268">
   <si>
     <t>Signal Name</t>
   </si>
@@ -746,18 +746,12 @@
     <t>REGISTER ADDRESS</t>
   </si>
   <si>
-    <t>REGISTER DATA</t>
-  </si>
-  <si>
     <t>Crossbar Communication Mode:</t>
   </si>
   <si>
     <t>EXTERNAL IO ADDRESS [IO_INDEX + 2]</t>
   </si>
   <si>
-    <t>INTERNAL IO INDEX</t>
-  </si>
-  <si>
     <t>EXTERNAL_IO_ADDRESS[6:0]</t>
   </si>
   <si>
@@ -840,6 +834,15 @@
   </si>
   <si>
     <t>SPI Protocol:</t>
+  </si>
+  <si>
+    <t>REGISTER DATA [MSBF]</t>
+  </si>
+  <si>
+    <t>INTERNAL IO INDEX [MSBF]</t>
+  </si>
+  <si>
+    <t>Multi-word spi transactions follow MSBF order. The second data word is stored in the lower address accessed.  The SPI transfer "ADDRESS[6:0]/DATA_1[7:0]/DATA_2[7:0]" is equivalent to "ADDRESS[6:0] / DATA_1[7:0]   ADDRESS[6:0]-1 / DATA_2[7:0]"</t>
   </si>
 </sst>
 </file>
@@ -948,7 +951,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1601,12 +1604,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1697,6 +1744,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1709,18 +1793,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1739,51 +1811,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1796,12 +1856,87 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1820,105 +1955,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2234,17 +2309,17 @@
       <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3333,90 +3408,90 @@
     </row>
     <row r="54" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="58"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="69"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="59">
+      <c r="B56" s="70">
         <v>1</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="53"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="60"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="59"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="53"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="60"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="60"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="55"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="62"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="41">
         <v>2</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="64"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="61">
+      <c r="B60" s="72">
         <v>3</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="51"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="66"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="59"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="53"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="60"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="60"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="55"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3442,8 +3517,8 @@
   </sheetPr>
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3459,26 +3534,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="12">
         <v>1</v>
       </c>
@@ -3493,10 +3568,10 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3511,10 +3586,10 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="14" t="s">
         <v>206</v>
       </c>
@@ -3529,34 +3604,34 @@
       <c r="M5" s="12"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
@@ -3625,7 +3700,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>124</v>
@@ -3633,7 +3708,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C12" s="20">
         <v>2</v>
@@ -3644,34 +3719,20 @@
       <c r="E12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="37" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="20">
         <v>3</v>
@@ -3682,15 +3743,29 @@
       <c r="E13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="M13" s="37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -3784,19 +3859,19 @@
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>152</v>
@@ -3828,7 +3903,7 @@
         <v>155</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -3854,7 +3929,7 @@
         <v>155</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -3870,16 +3945,16 @@
       <c r="E19" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
@@ -3894,16 +3969,16 @@
       <c r="E20" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="s">
@@ -3918,16 +3993,16 @@
       <c r="E21" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="34" t="s">
@@ -3942,16 +4017,16 @@
       <c r="E22" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="72" t="s">
+      <c r="F22" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="73"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="77"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="s">
@@ -3992,16 +4067,16 @@
       <c r="E24" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="34" t="s">
@@ -4042,16 +4117,16 @@
       <c r="E26" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="73"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="34" t="s">
@@ -4092,16 +4167,16 @@
       <c r="E28" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="73"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="34" t="s">
@@ -4146,16 +4221,16 @@
       <c r="G30" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="I30" s="104"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="69" t="s">
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="34" t="s">
@@ -4176,16 +4251,16 @@
       <c r="G31" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68" t="s">
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="L31" s="68"/>
-      <c r="M31" s="69"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="73"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="34" t="s">
@@ -4206,16 +4281,16 @@
       <c r="G32" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68" t="s">
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="L32" s="68"/>
-      <c r="M32" s="69"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="73"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="34" t="s">
@@ -4236,22 +4311,22 @@
       <c r="G33" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68" t="s">
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="L33" s="68"/>
-      <c r="M33" s="69"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="73"/>
     </row>
     <row r="34" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="108">
+      <c r="C34" s="48">
         <v>24</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -4266,26 +4341,22 @@
       <c r="G34" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H34" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70" t="s">
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="L34" s="70"/>
-      <c r="M34" s="71"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="83"/>
     </row>
     <row r="35" spans="2:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-    </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -4340,6 +4411,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="F22:M22"/>
@@ -4354,14 +4433,6 @@
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="F20:M20"/>
     <mergeCell ref="F21:M21"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4389,441 +4460,436 @@
       <c r="B2" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
+      <c r="C13" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
+      <c r="C14" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
+      <c r="C15" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
+      <c r="C16" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C25" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="111" t="s">
-        <v>250</v>
-      </c>
-      <c r="C24" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="111" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
     <mergeCell ref="C13:M13"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="C3:M3"/>
@@ -4836,6 +4902,11 @@
     <mergeCell ref="C10:M10"/>
     <mergeCell ref="C11:M11"/>
     <mergeCell ref="C12:M12"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
     <mergeCell ref="C22:M22"/>
     <mergeCell ref="C15:M15"/>
     <mergeCell ref="C17:M17"/>
@@ -4855,10 +4926,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Q30"/>
+  <dimension ref="B2:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4888,11 +4959,11 @@
       <c r="Q2" s="102"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="103" t="s">
         <v>229</v>
       </c>
@@ -4911,26 +4982,26 @@
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="90" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="92"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="101"/>
     </row>
     <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="45" t="s">
@@ -4986,118 +5057,118 @@
       <c r="B8" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="96" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="95"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="107"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="43">
         <v>0</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="114"/>
     </row>
     <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="42">
         <v>1</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83" t="s">
-        <v>244</v>
-      </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="84"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="116"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
+      <c r="B13" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
     </row>
     <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="90" t="s">
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="92"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="101"/>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="45" t="s">
@@ -5153,199 +5224,233 @@
       <c r="B17" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="93" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="96" t="s">
-        <v>238</v>
-      </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
+      <c r="C17" s="104" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="106" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="107"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="43">
         <v>0</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="99" t="s">
-        <v>241</v>
-      </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="114"/>
     </row>
     <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="42">
         <v>1</v>
       </c>
-      <c r="C19" s="81" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="84"/>
+      <c r="C19" s="110" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="115" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="116"/>
     </row>
     <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="88"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="120"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="59">
+      <c r="B23" s="133">
         <v>1</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
+      <c r="C23" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="125"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-    </row>
-    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="89" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="118" t="s">
+      <c r="B24" s="126"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="127"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="123">
+        <v>2</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="128"/>
+    </row>
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="132"/>
+    </row>
+    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="51">
+        <v>1</v>
+      </c>
+      <c r="I31" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="97"/>
+    </row>
+    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="C29" s="120" t="s">
+      <c r="C32" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="124">
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="52">
         <v>1</v>
       </c>
-      <c r="I29" s="113" t="s">
-        <v>265</v>
-      </c>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="114"/>
-    </row>
-    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="119" t="s">
+      <c r="I32" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C30" s="122" t="s">
-        <v>263</v>
-      </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="125">
-        <v>1</v>
-      </c>
-      <c r="I30" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="117"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:I6"/>
+  <mergeCells count="31">
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="E4:Q4"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="J6:Q6"/>
     <mergeCell ref="J8:Q8"/>
@@ -5359,6 +5464,12 @@
     <mergeCell ref="C23:Q24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B22:Q22"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="J15:Q15"/>
@@ -5366,6 +5477,8 @@
     <mergeCell ref="J17:Q17"/>
     <mergeCell ref="C18:I18"/>
     <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="C25:Q26"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
